--- a/biology/Botanique/Nicotiana/Nicotiana.xlsx
+++ b/biology/Botanique/Nicotiana/Nicotiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicotiana est un genre de plantes dicotylédones de la famille des Solanacées. La composition de ce genre est discutée : il comprendrait de 65 à 100 espèces. Ce sont des plantes annuelles ou vivaces, des arbustes et des petits arbres originaires des régions tropicales, autrefois dénommés nicotianes. Ces plantes peuvent se révéler très toxiques.
 L'espèce la plus connue et la plus importante sur le plan économique est Nicotiana tabacum, principale espèce cultivée pour la production du tabac. D'autres espèces sont cultivées en horticulture à des fins ornementales et certaines sont utilisées en tant que plantes modèles pour la recherche en biologie végétale.  
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbacé 
 Geophyte 
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nicotiana acuminata
@@ -632,6 +650,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
